--- a/testData/WebForm/TC009_WF_RRUserN_OneConditionYN_Test.xlsx
+++ b/testData/WebForm/TC009_WF_RRUserN_OneConditionYN_Test.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="90">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -258,40 +258,7 @@
     <t>Margaret</t>
   </si>
   <si>
-    <t>9840090180</t>
-  </si>
-  <si>
-    <t>2024-06-29 14:43:10</t>
-  </si>
-  <si>
-    <t>9840017343</t>
-  </si>
-  <si>
-    <t>2024-06-29 14:43:54</t>
-  </si>
-  <si>
-    <t>9840028744</t>
-  </si>
-  <si>
-    <t>2024-06-29 14:44:17</t>
-  </si>
-  <si>
-    <t>9840062380</t>
-  </si>
-  <si>
-    <t>2024-06-29 14:44:40</t>
-  </si>
-  <si>
-    <t>9840007137</t>
-  </si>
-  <si>
-    <t>2024-06-29 14:45:03</t>
-  </si>
-  <si>
     <t>9840000309</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>2024-06-29 14:51:33</t>
@@ -328,7 +295,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -670,90 +636,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AM2" sqref="AM2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="28.453125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.54296875"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.90625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.26953125"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="19" max="19" customWidth="true" width="10.54296875"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="22" max="22" customWidth="true" width="10.54296875"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="25" max="25" customWidth="true" width="10.54296875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="32" max="33" customWidth="true" width="9.6328125"/>
-    <col min="34" max="35" customWidth="true" width="15.26953125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="37" max="37" customWidth="true" width="17.81640625"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="27.36328125"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="12.90625"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="15.26953125"/>
-    <col min="41" max="42" customWidth="true" width="15.26953125"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="44" max="44" customWidth="true" width="11.453125"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="1" max="1" width="52.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.54296875" customWidth="1"/>
+    <col min="20" max="20" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.54296875" customWidth="1"/>
+    <col min="23" max="23" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.54296875" customWidth="1"/>
+    <col min="26" max="26" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="9.6328125" customWidth="1"/>
+    <col min="34" max="35" width="15.26953125" customWidth="1"/>
+    <col min="36" max="36" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.81640625" customWidth="1"/>
+    <col min="38" max="38" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="15.26953125" customWidth="1"/>
+    <col min="43" max="43" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.453125" customWidth="1"/>
+    <col min="45" max="45" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s" s="0">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -762,100 +728,100 @@
       <c r="N1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="O1" t="s" s="0">
+      <c r="O1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" t="s" s="0">
+      <c r="P1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" t="s" s="0">
+      <c r="Q1" t="s">
         <v>26</v>
       </c>
-      <c r="R1" t="s" s="0">
+      <c r="R1" t="s">
         <v>27</v>
       </c>
-      <c r="S1" t="s" s="0">
+      <c r="S1" t="s">
         <v>23</v>
       </c>
-      <c r="T1" t="s" s="0">
+      <c r="T1" t="s">
         <v>26</v>
       </c>
-      <c r="U1" t="s" s="0">
+      <c r="U1" t="s">
         <v>27</v>
       </c>
-      <c r="V1" t="s" s="0">
+      <c r="V1" t="s">
         <v>24</v>
       </c>
-      <c r="W1" t="s" s="0">
+      <c r="W1" t="s">
         <v>26</v>
       </c>
-      <c r="X1" t="s" s="0">
+      <c r="X1" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" t="s" s="0">
+      <c r="Y1" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" t="s" s="0">
+      <c r="Z1" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" t="s" s="0">
+      <c r="AA1" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" t="s" s="0">
+      <c r="AB1" t="s">
         <v>49</v>
       </c>
-      <c r="AC1" t="s" s="0">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" t="s" s="0">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" t="s" s="0">
+      <c r="AE1" t="s">
         <v>50</v>
       </c>
-      <c r="AF1" t="s" s="0">
+      <c r="AF1" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" t="s" s="0">
+      <c r="AG1" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" t="s" s="0">
+      <c r="AH1" t="s">
         <v>59</v>
       </c>
-      <c r="AI1" t="s" s="0">
+      <c r="AI1" t="s">
         <v>26</v>
       </c>
-      <c r="AJ1" t="s" s="0">
+      <c r="AJ1" t="s">
         <v>27</v>
       </c>
-      <c r="AK1" t="s" s="0">
+      <c r="AK1" t="s">
         <v>28</v>
       </c>
-      <c r="AL1" t="s" s="0">
+      <c r="AL1" t="s">
         <v>30</v>
       </c>
-      <c r="AM1" t="s" s="0">
+      <c r="AM1" t="s">
         <v>52</v>
       </c>
-      <c r="AN1" t="s" s="0">
+      <c r="AN1" t="s">
         <v>53</v>
       </c>
-      <c r="AO1" t="s" s="0">
+      <c r="AO1" t="s">
         <v>62</v>
       </c>
-      <c r="AP1" t="s" s="0">
+      <c r="AP1" t="s">
         <v>26</v>
       </c>
-      <c r="AQ1" t="s" s="0">
+      <c r="AQ1" t="s">
         <v>27</v>
       </c>
-      <c r="AR1" t="s" s="0">
+      <c r="AR1" t="s">
         <v>69</v>
       </c>
-      <c r="AS1" t="s" s="0">
+      <c r="AS1" t="s">
         <v>60</v>
       </c>
-      <c r="AT1" t="s" s="0">
+      <c r="AT1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -869,31 +835,31 @@
       <c r="C2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s" s="0">
-        <v>89</v>
+      <c r="F2" t="s">
+        <v>79</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="H2" t="s">
         <v>31</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s" s="0">
+      <c r="J2" t="s">
         <v>61</v>
       </c>
-      <c r="K2" t="s" s="0">
+      <c r="K2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" t="s" s="0">
+      <c r="L2" t="s">
         <v>40</v>
       </c>
       <c r="M2" s="4" t="s">
@@ -902,46 +868,46 @@
       <c r="N2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="O2" t="s" s="0">
+      <c r="O2" t="s">
         <v>17</v>
       </c>
-      <c r="P2" t="s" s="0">
+      <c r="P2" t="s">
         <v>64</v>
       </c>
-      <c r="Q2" t="s" s="0">
+      <c r="Q2" t="s">
         <v>51</v>
       </c>
-      <c r="R2" t="s" s="0">
+      <c r="R2" t="s">
         <v>51</v>
       </c>
-      <c r="S2" t="s" s="0">
+      <c r="S2" t="s">
         <v>65</v>
       </c>
-      <c r="T2" t="s" s="0">
+      <c r="T2" t="s">
         <v>51</v>
       </c>
-      <c r="U2" t="s" s="0">
+      <c r="U2" t="s">
         <v>51</v>
       </c>
-      <c r="V2" t="s" s="0">
+      <c r="V2" t="s">
         <v>66</v>
       </c>
-      <c r="W2" t="s" s="0">
+      <c r="W2" t="s">
         <v>51</v>
       </c>
-      <c r="X2" t="s" s="0">
+      <c r="X2" t="s">
         <v>51</v>
       </c>
-      <c r="Y2" t="s" s="0">
+      <c r="Y2" t="s">
         <v>67</v>
       </c>
-      <c r="Z2" t="s" s="0">
+      <c r="Z2" t="s">
         <v>51</v>
       </c>
-      <c r="AA2" t="s" s="0">
+      <c r="AA2" t="s">
         <v>51</v>
       </c>
-      <c r="AB2" t="s" s="0">
+      <c r="AB2" t="s">
         <v>75</v>
       </c>
       <c r="AC2" s="4" t="s">
@@ -950,7 +916,7 @@
       <c r="AD2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AE2" t="s" s="0">
+      <c r="AE2" t="s">
         <v>76</v>
       </c>
       <c r="AF2" s="4" t="s">
@@ -968,19 +934,19 @@
       <c r="AJ2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AK2" t="s" s="0">
+      <c r="AK2" t="s">
         <v>29</v>
       </c>
-      <c r="AL2" t="s" s="0">
+      <c r="AL2" t="s">
         <v>63</v>
       </c>
-      <c r="AM2" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="AN2" s="0">
+      <c r="AM2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN2">
         <v>0</v>
       </c>
-      <c r="AO2" t="s" s="0">
+      <c r="AO2" t="s">
         <v>77</v>
       </c>
       <c r="AP2" s="4" t="s">
@@ -992,11 +958,11 @@
       <c r="AR2" s="4">
         <v>139</v>
       </c>
-      <c r="AS2" t="s" s="0">
+      <c r="AS2" t="s">
         <v>70</v>
       </c>
-      <c r="AT2" t="s" s="0">
-        <v>91</v>
+      <c r="AT2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.35">
@@ -1009,31 +975,31 @@
       <c r="C3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s" s="0">
-        <v>92</v>
+      <c r="F3" t="s">
+        <v>81</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s" s="0">
+      <c r="H3" t="s">
         <v>32</v>
       </c>
-      <c r="I3" t="s" s="0">
+      <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="s" s="0">
+      <c r="J3" t="s">
         <v>61</v>
       </c>
-      <c r="K3" t="s" s="0">
+      <c r="K3" t="s">
         <v>13</v>
       </c>
-      <c r="L3" t="s" s="0">
+      <c r="L3" t="s">
         <v>41</v>
       </c>
       <c r="M3" s="4" t="s">
@@ -1042,14 +1008,14 @@
       <c r="N3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="O3" t="s" s="0">
+      <c r="O3" t="s">
         <v>17</v>
       </c>
-      <c r="AS3" t="s" s="0">
+      <c r="AS3" t="s">
         <v>70</v>
       </c>
-      <c r="AT3" t="s" s="0">
-        <v>93</v>
+      <c r="AT3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.35">
@@ -1062,31 +1028,31 @@
       <c r="C4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s" s="0">
-        <v>94</v>
+      <c r="F4" t="s">
+        <v>83</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" t="s" s="0">
+      <c r="H4" t="s">
         <v>33</v>
       </c>
-      <c r="I4" t="s" s="0">
+      <c r="I4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" t="s" s="0">
+      <c r="J4" t="s">
         <v>61</v>
       </c>
-      <c r="K4" t="s" s="0">
+      <c r="K4" t="s">
         <v>13</v>
       </c>
-      <c r="L4" t="s" s="0">
+      <c r="L4" t="s">
         <v>40</v>
       </c>
       <c r="M4" s="4" t="s">
@@ -1095,14 +1061,14 @@
       <c r="N4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="O4" t="s" s="0">
+      <c r="O4" t="s">
         <v>17</v>
       </c>
-      <c r="AS4" t="s" s="0">
+      <c r="AS4" t="s">
         <v>70</v>
       </c>
-      <c r="AT4" t="s" s="0">
-        <v>96</v>
+      <c r="AT4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.35">
@@ -1115,31 +1081,31 @@
       <c r="C5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s" s="0">
+      <c r="F5" t="s">
         <v>68</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" t="s" s="0">
+      <c r="H5" t="s">
         <v>34</v>
       </c>
-      <c r="I5" t="s" s="0">
+      <c r="I5" t="s">
         <v>10</v>
       </c>
-      <c r="J5" t="s" s="0">
+      <c r="J5" t="s">
         <v>61</v>
       </c>
-      <c r="K5" t="s" s="0">
+      <c r="K5" t="s">
         <v>13</v>
       </c>
-      <c r="L5" t="s" s="0">
+      <c r="L5" t="s">
         <v>43</v>
       </c>
       <c r="M5" s="4" t="s">
@@ -1148,8 +1114,8 @@
       <c r="N5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="O5" t="s" s="0">
-        <v>51</v>
+      <c r="O5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.35">
@@ -1162,7 +1128,7 @@
       <c r="C6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -1171,19 +1137,19 @@
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H6" t="s" s="0">
+      <c r="H6" t="s">
         <v>35</v>
       </c>
-      <c r="I6" t="s" s="0">
+      <c r="I6" t="s">
         <v>10</v>
       </c>
-      <c r="J6" t="s" s="0">
+      <c r="J6" t="s">
         <v>61</v>
       </c>
-      <c r="K6" t="s" s="0">
+      <c r="K6" t="s">
         <v>13</v>
       </c>
-      <c r="L6" t="s" s="0">
+      <c r="L6" t="s">
         <v>44</v>
       </c>
       <c r="M6" s="4" t="s">
@@ -1192,8 +1158,8 @@
       <c r="N6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="O6" t="s" s="0">
-        <v>51</v>
+      <c r="O6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.35">
@@ -1206,31 +1172,31 @@
       <c r="C7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s" s="0">
-        <v>97</v>
+      <c r="F7" t="s">
+        <v>86</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H7" t="s" s="0">
+      <c r="H7" t="s">
         <v>36</v>
       </c>
-      <c r="I7" t="s" s="0">
+      <c r="I7" t="s">
         <v>10</v>
       </c>
-      <c r="J7" t="s" s="0">
+      <c r="J7" t="s">
         <v>61</v>
       </c>
-      <c r="K7" t="s" s="0">
+      <c r="K7" t="s">
         <v>13</v>
       </c>
-      <c r="L7" t="s" s="0">
+      <c r="L7" t="s">
         <v>40</v>
       </c>
       <c r="M7" s="4" t="s">
@@ -1239,14 +1205,14 @@
       <c r="N7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="O7" t="s" s="0">
+      <c r="O7" t="s">
         <v>17</v>
       </c>
-      <c r="AS7" t="s" s="0">
+      <c r="AS7" t="s">
         <v>70</v>
       </c>
-      <c r="AT7" t="s" s="0">
-        <v>98</v>
+      <c r="AT7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.35">
@@ -1259,31 +1225,31 @@
       <c r="C8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F8" t="s" s="0">
+      <c r="F8" t="s">
         <v>71</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H8" t="s" s="0">
+      <c r="H8" t="s">
         <v>37</v>
       </c>
-      <c r="I8" t="s" s="0">
+      <c r="I8" t="s">
         <v>10</v>
       </c>
-      <c r="J8" t="s" s="0">
+      <c r="J8" t="s">
         <v>61</v>
       </c>
-      <c r="K8" t="s" s="0">
+      <c r="K8" t="s">
         <v>13</v>
       </c>
-      <c r="L8" t="s" s="0">
+      <c r="L8" t="s">
         <v>41</v>
       </c>
       <c r="M8" s="4" t="s">
@@ -1292,13 +1258,13 @@
       <c r="N8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="O8" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="AS8" t="s" s="0">
+      <c r="O8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS8" t="s">
         <v>70</v>
       </c>
-      <c r="AT8" t="s" s="0">
+      <c r="AT8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1312,31 +1278,31 @@
       <c r="C9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F9" t="s" s="0">
+      <c r="F9" t="s">
         <v>73</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H9" t="s" s="0">
+      <c r="H9" t="s">
         <v>38</v>
       </c>
-      <c r="I9" t="s" s="0">
+      <c r="I9" t="s">
         <v>10</v>
       </c>
-      <c r="J9" t="s" s="0">
+      <c r="J9" t="s">
         <v>61</v>
       </c>
-      <c r="K9" t="s" s="0">
+      <c r="K9" t="s">
         <v>13</v>
       </c>
-      <c r="L9" t="s" s="0">
+      <c r="L9" t="s">
         <v>42</v>
       </c>
       <c r="M9" s="4" t="s">
@@ -1345,13 +1311,13 @@
       <c r="N9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="O9" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="AS9" t="s" s="0">
+      <c r="O9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS9" t="s">
         <v>70</v>
       </c>
-      <c r="AT9" t="s" s="0">
+      <c r="AT9" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1365,31 +1331,31 @@
       <c r="C10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F10" t="s" s="0">
-        <v>99</v>
+      <c r="F10" t="s">
+        <v>88</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H10" t="s" s="0">
+      <c r="H10" t="s">
         <v>39</v>
       </c>
-      <c r="I10" t="s" s="0">
+      <c r="I10" t="s">
         <v>10</v>
       </c>
-      <c r="J10" t="s" s="0">
+      <c r="J10" t="s">
         <v>61</v>
       </c>
-      <c r="K10" t="s" s="0">
+      <c r="K10" t="s">
         <v>13</v>
       </c>
-      <c r="L10" t="s" s="0">
+      <c r="L10" t="s">
         <v>40</v>
       </c>
       <c r="M10" s="4" t="s">
@@ -1398,14 +1364,14 @@
       <c r="N10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="O10" t="s" s="0">
+      <c r="O10" t="s">
         <v>17</v>
       </c>
-      <c r="AS10" t="s" s="0">
+      <c r="AS10" t="s">
         <v>70</v>
       </c>
-      <c r="AT10" t="s" s="0">
-        <v>100</v>
+      <c r="AT10" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/testData/WebForm/TC009_WF_RRUserN_OneConditionYN_Test.xlsx
+++ b/testData/WebForm/TC009_WF_RRUserN_OneConditionYN_Test.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="112">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -289,12 +289,79 @@
   </si>
   <si>
     <t>2024-06-29 14:53:27</t>
+  </si>
+  <si>
+    <t>9840067368</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2024-07-04 14:05:06</t>
+  </si>
+  <si>
+    <t>9840093925</t>
+  </si>
+  <si>
+    <t>9840017915</t>
+  </si>
+  <si>
+    <t>2024-07-04 14:11:24</t>
+  </si>
+  <si>
+    <t>9840040376</t>
+  </si>
+  <si>
+    <t>2024-07-04 14:12:05</t>
+  </si>
+  <si>
+    <t>9840087702</t>
+  </si>
+  <si>
+    <t>2024-07-04 14:12:27</t>
+  </si>
+  <si>
+    <t>9840024848</t>
+  </si>
+  <si>
+    <t>2024-07-04 14:13:07</t>
+  </si>
+  <si>
+    <t>9840090465</t>
+  </si>
+  <si>
+    <t>2024-07-04 14:13:47</t>
+  </si>
+  <si>
+    <t>9840068871</t>
+  </si>
+  <si>
+    <t>2024-07-04 14:14:08</t>
+  </si>
+  <si>
+    <t>9840061140</t>
+  </si>
+  <si>
+    <t>2024-07-04 14:14:48</t>
+  </si>
+  <si>
+    <t>9840085454</t>
+  </si>
+  <si>
+    <t>2024-07-04 14:15:28</t>
+  </si>
+  <si>
+    <t>9840042048</t>
+  </si>
+  <si>
+    <t>2024-07-04 14:15:50</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -642,84 +709,84 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.54296875" customWidth="1"/>
-    <col min="20" max="20" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.54296875" customWidth="1"/>
-    <col min="23" max="23" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.54296875" customWidth="1"/>
-    <col min="26" max="26" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="9.6328125" customWidth="1"/>
-    <col min="34" max="35" width="15.26953125" customWidth="1"/>
-    <col min="36" max="36" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.81640625" customWidth="1"/>
-    <col min="38" max="38" width="27.36328125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="15.26953125" customWidth="1"/>
-    <col min="43" max="43" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.453125" customWidth="1"/>
-    <col min="45" max="45" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="28.453125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.54296875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.90625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.26953125"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.54296875"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="19" max="19" customWidth="true" width="10.54296875"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="22" max="22" customWidth="true" width="10.54296875"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="25" max="25" customWidth="true" width="10.54296875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.54296875"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.54296875"/>
+    <col min="32" max="33" customWidth="true" width="9.6328125"/>
+    <col min="34" max="35" customWidth="true" width="15.26953125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="37" max="37" customWidth="true" width="17.81640625"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="27.36328125"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="12.90625"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="15.26953125"/>
+    <col min="41" max="42" customWidth="true" width="15.26953125"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="44" max="44" customWidth="true" width="11.453125"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="11.81640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" t="s" s="0">
         <v>6</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -728,100 +795,100 @@
       <c r="N1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" t="s" s="0">
         <v>19</v>
       </c>
     </row>
@@ -835,31 +902,31 @@
       <c r="C2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>79</v>
+      <c r="F2" t="s" s="0">
+        <v>94</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" t="s" s="0">
         <v>40</v>
       </c>
       <c r="M2" s="4" t="s">
@@ -868,46 +935,46 @@
       <c r="N2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Z2" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AA2" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AB2" t="s" s="0">
         <v>75</v>
       </c>
       <c r="AC2" s="4" t="s">
@@ -916,7 +983,7 @@
       <c r="AD2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AE2" t="s" s="0">
         <v>76</v>
       </c>
       <c r="AF2" s="4" t="s">
@@ -934,19 +1001,19 @@
       <c r="AJ2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AK2" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AL2" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="AM2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN2">
+      <c r="AM2" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="AN2" s="0">
         <v>0</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AO2" t="s" s="0">
         <v>77</v>
       </c>
       <c r="AP2" s="4" t="s">
@@ -958,11 +1025,11 @@
       <c r="AR2" s="4">
         <v>139</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AS2" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="AT2" t="s">
-        <v>80</v>
+      <c r="AT2" t="s" s="0">
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.35">
@@ -975,31 +1042,31 @@
       <c r="C3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
-        <v>81</v>
+      <c r="F3" t="s" s="0">
+        <v>96</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" t="s" s="0">
         <v>41</v>
       </c>
       <c r="M3" s="4" t="s">
@@ -1008,14 +1075,14 @@
       <c r="N3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AS3" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="AT3" t="s">
-        <v>82</v>
+      <c r="AT3" t="s" s="0">
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.35">
@@ -1028,31 +1095,31 @@
       <c r="C4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
-        <v>83</v>
+      <c r="F4" t="s" s="0">
+        <v>98</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" t="s" s="0">
         <v>40</v>
       </c>
       <c r="M4" s="4" t="s">
@@ -1061,14 +1128,14 @@
       <c r="N4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AS4" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="AT4" t="s">
-        <v>85</v>
+      <c r="AT4" t="s" s="0">
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.35">
@@ -1081,31 +1148,31 @@
       <c r="C5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
-        <v>68</v>
+      <c r="F5" t="s" s="0">
+        <v>100</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" t="s" s="0">
         <v>43</v>
       </c>
       <c r="M5" s="4" t="s">
@@ -1114,8 +1181,14 @@
       <c r="N5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" t="s" s="0">
         <v>17</v>
+      </c>
+      <c r="AS5" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="AT5" t="s" s="0">
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.35">
@@ -1128,28 +1201,31 @@
       <c r="C6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F6" t="s" s="0">
+        <v>102</v>
+      </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" t="s" s="0">
         <v>44</v>
       </c>
       <c r="M6" s="4" t="s">
@@ -1158,8 +1234,14 @@
       <c r="N6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" t="s" s="0">
         <v>17</v>
+      </c>
+      <c r="AS6" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="AT6" t="s" s="0">
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.35">
@@ -1172,31 +1254,31 @@
       <c r="C7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s">
-        <v>86</v>
+      <c r="F7" t="s" s="0">
+        <v>104</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" t="s" s="0">
         <v>40</v>
       </c>
       <c r="M7" s="4" t="s">
@@ -1205,14 +1287,14 @@
       <c r="N7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="AS7" t="s">
+      <c r="AS7" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="AT7" t="s">
-        <v>87</v>
+      <c r="AT7" t="s" s="0">
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.35">
@@ -1225,31 +1307,31 @@
       <c r="C8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F8" t="s">
-        <v>71</v>
+      <c r="F8" t="s" s="0">
+        <v>106</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" t="s" s="0">
         <v>41</v>
       </c>
       <c r="M8" s="4" t="s">
@@ -1258,14 +1340,14 @@
       <c r="N8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="AS8" t="s">
+      <c r="AS8" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="AT8" t="s">
-        <v>72</v>
+      <c r="AT8" t="s" s="0">
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.35">
@@ -1278,31 +1360,31 @@
       <c r="C9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F9" t="s">
-        <v>73</v>
+      <c r="F9" t="s" s="0">
+        <v>108</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" t="s" s="0">
         <v>42</v>
       </c>
       <c r="M9" s="4" t="s">
@@ -1311,14 +1393,14 @@
       <c r="N9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="AS9" t="s">
+      <c r="AS9" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="AT9" t="s">
-        <v>74</v>
+      <c r="AT9" t="s" s="0">
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.35">
@@ -1331,31 +1413,31 @@
       <c r="C10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F10" t="s">
-        <v>88</v>
+      <c r="F10" t="s" s="0">
+        <v>110</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" t="s" s="0">
         <v>40</v>
       </c>
       <c r="M10" s="4" t="s">
@@ -1364,14 +1446,14 @@
       <c r="N10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="AS10" t="s">
+      <c r="AS10" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="AT10" t="s">
-        <v>89</v>
+      <c r="AT10" t="s" s="0">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/testData/WebForm/TC009_WF_RRUserN_OneConditionYN_Test.xlsx
+++ b/testData/WebForm/TC009_WF_RRUserN_OneConditionYN_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="130">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -355,6 +355,60 @@
   </si>
   <si>
     <t>2024-07-04 14:15:50</t>
+  </si>
+  <si>
+    <t>9840098905</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:06:47</t>
+  </si>
+  <si>
+    <t>9840034292</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:07:34</t>
+  </si>
+  <si>
+    <t>9840000841</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:08:04</t>
+  </si>
+  <si>
+    <t>9840034736</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:08:53</t>
+  </si>
+  <si>
+    <t>9840088123</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:09:41</t>
+  </si>
+  <si>
+    <t>9840052196</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:10:09</t>
+  </si>
+  <si>
+    <t>9840000011</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:10:57</t>
+  </si>
+  <si>
+    <t>9840086057</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:11:46</t>
+  </si>
+  <si>
+    <t>9840030487</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:12:15</t>
   </si>
 </sst>
 </file>
@@ -909,7 +963,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1029,7 +1083,7 @@
         <v>70</v>
       </c>
       <c r="AT2" t="s" s="0">
-        <v>95</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.35">
@@ -1049,7 +1103,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1082,7 +1136,7 @@
         <v>70</v>
       </c>
       <c r="AT3" t="s" s="0">
-        <v>97</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.35">
@@ -1102,7 +1156,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1135,7 +1189,7 @@
         <v>70</v>
       </c>
       <c r="AT4" t="s" s="0">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.35">
@@ -1155,7 +1209,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1188,7 +1242,7 @@
         <v>70</v>
       </c>
       <c r="AT5" t="s" s="0">
-        <v>101</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.35">
@@ -1208,7 +1262,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1241,7 +1295,7 @@
         <v>70</v>
       </c>
       <c r="AT6" t="s" s="0">
-        <v>103</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.35">
@@ -1261,7 +1315,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1294,7 +1348,7 @@
         <v>70</v>
       </c>
       <c r="AT7" t="s" s="0">
-        <v>105</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.35">
@@ -1314,7 +1368,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1347,7 +1401,7 @@
         <v>70</v>
       </c>
       <c r="AT8" t="s" s="0">
-        <v>107</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.35">
@@ -1367,7 +1421,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1400,7 +1454,7 @@
         <v>70</v>
       </c>
       <c r="AT9" t="s" s="0">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.35">
@@ -1420,7 +1474,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -1453,7 +1507,7 @@
         <v>70</v>
       </c>
       <c r="AT10" t="s" s="0">
-        <v>111</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/testData/WebForm/TC009_WF_RRUserN_OneConditionYN_Test.xlsx
+++ b/testData/WebForm/TC009_WF_RRUserN_OneConditionYN_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="102">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -225,27 +225,12 @@
     <t>Mason</t>
   </si>
   <si>
-    <t>9840098120</t>
-  </si>
-  <si>
     <t>WebFormId</t>
   </si>
   <si>
     <t>Done</t>
   </si>
   <si>
-    <t>9840010994</t>
-  </si>
-  <si>
-    <t>2024-06-29 14:08:58</t>
-  </si>
-  <si>
-    <t>9840003526</t>
-  </si>
-  <si>
-    <t>2024-06-29 14:09:41</t>
-  </si>
-  <si>
     <t>Kimberly</t>
   </si>
   <si>
@@ -258,157 +243,88 @@
     <t>Margaret</t>
   </si>
   <si>
-    <t>9840000309</t>
-  </si>
-  <si>
-    <t>2024-06-29 14:51:33</t>
-  </si>
-  <si>
-    <t>9840069222</t>
-  </si>
-  <si>
-    <t>2024-06-29 14:52:16</t>
-  </si>
-  <si>
-    <t>9840047643</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>9840098905</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:06:47</t>
+  </si>
+  <si>
+    <t>9840034292</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:07:34</t>
+  </si>
+  <si>
+    <t>9840000841</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:08:04</t>
+  </si>
+  <si>
+    <t>9840034736</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:08:53</t>
+  </si>
+  <si>
+    <t>9840088123</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:09:41</t>
+  </si>
+  <si>
+    <t>9840052196</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:10:09</t>
+  </si>
+  <si>
+    <t>9840000011</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:10:57</t>
+  </si>
+  <si>
+    <t>9840086057</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:11:46</t>
+  </si>
+  <si>
+    <t>9840030487</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:12:15</t>
+  </si>
+  <si>
+    <t>9840060695</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>2024-06-29 14:52:40</t>
-  </si>
-  <si>
-    <t>9840007093</t>
-  </si>
-  <si>
-    <t>2024-06-29 14:53:03</t>
-  </si>
-  <si>
-    <t>9840098895</t>
-  </si>
-  <si>
-    <t>2024-06-29 14:53:27</t>
-  </si>
-  <si>
-    <t>9840067368</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2024-07-04 14:05:06</t>
-  </si>
-  <si>
-    <t>9840093925</t>
-  </si>
-  <si>
-    <t>9840017915</t>
-  </si>
-  <si>
-    <t>2024-07-04 14:11:24</t>
-  </si>
-  <si>
-    <t>9840040376</t>
-  </si>
-  <si>
-    <t>2024-07-04 14:12:05</t>
-  </si>
-  <si>
-    <t>9840087702</t>
-  </si>
-  <si>
-    <t>2024-07-04 14:12:27</t>
-  </si>
-  <si>
-    <t>9840024848</t>
-  </si>
-  <si>
-    <t>2024-07-04 14:13:07</t>
-  </si>
-  <si>
-    <t>9840090465</t>
-  </si>
-  <si>
-    <t>2024-07-04 14:13:47</t>
-  </si>
-  <si>
-    <t>9840068871</t>
-  </si>
-  <si>
-    <t>2024-07-04 14:14:08</t>
-  </si>
-  <si>
-    <t>9840061140</t>
-  </si>
-  <si>
-    <t>2024-07-04 14:14:48</t>
-  </si>
-  <si>
-    <t>9840085454</t>
-  </si>
-  <si>
-    <t>2024-07-04 14:15:28</t>
-  </si>
-  <si>
-    <t>9840042048</t>
-  </si>
-  <si>
-    <t>2024-07-04 14:15:50</t>
-  </si>
-  <si>
-    <t>9840098905</t>
-  </si>
-  <si>
-    <t>2024-07-17 13:06:47</t>
-  </si>
-  <si>
-    <t>9840034292</t>
-  </si>
-  <si>
-    <t>2024-07-17 13:07:34</t>
-  </si>
-  <si>
-    <t>9840000841</t>
-  </si>
-  <si>
-    <t>2024-07-17 13:08:04</t>
-  </si>
-  <si>
-    <t>9840034736</t>
-  </si>
-  <si>
-    <t>2024-07-17 13:08:53</t>
-  </si>
-  <si>
-    <t>9840088123</t>
-  </si>
-  <si>
-    <t>2024-07-17 13:09:41</t>
-  </si>
-  <si>
-    <t>9840052196</t>
-  </si>
-  <si>
-    <t>2024-07-17 13:10:09</t>
-  </si>
-  <si>
-    <t>9840000011</t>
-  </si>
-  <si>
-    <t>2024-07-17 13:10:57</t>
-  </si>
-  <si>
-    <t>9840086057</t>
-  </si>
-  <si>
-    <t>2024-07-17 13:11:46</t>
-  </si>
-  <si>
-    <t>9840030487</t>
-  </si>
-  <si>
-    <t>2024-07-17 13:12:15</t>
+    <t>2024-12-30 15:41:39</t>
+  </si>
+  <si>
+    <t>9840079116</t>
+  </si>
+  <si>
+    <t>2024-12-30 15:42:53</t>
+  </si>
+  <si>
+    <t>9840015322</t>
+  </si>
+  <si>
+    <t>2025-01-03 17:19:53</t>
+  </si>
+  <si>
+    <t>9840090696</t>
+  </si>
+  <si>
+    <t>2025-01-03 17:21:06</t>
   </si>
 </sst>
 </file>
@@ -758,55 +674,55 @@
   <dimension ref="A1:AT10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O10"/>
+      <selection activeCell="O4" sqref="O4:O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="28.453125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="28.42578125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.54296875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.5703125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.42578125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.5703125"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.90625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.26953125"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="19" max="19" customWidth="true" width="10.54296875"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="22" max="22" customWidth="true" width="10.54296875"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="25" max="25" customWidth="true" width="10.54296875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="32" max="33" customWidth="true" width="9.6328125"/>
-    <col min="34" max="35" customWidth="true" width="15.26953125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="37" max="37" customWidth="true" width="17.81640625"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="27.36328125"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="12.90625"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="15.26953125"/>
-    <col min="41" max="42" customWidth="true" width="15.26953125"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="44" max="44" customWidth="true" width="11.453125"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.140625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.28515625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="19" max="19" customWidth="true" width="10.5703125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="22" max="22" customWidth="true" width="10.5703125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="25" max="25" customWidth="true" width="10.5703125"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="32" max="33" customWidth="true" width="9.5703125"/>
+    <col min="34" max="35" customWidth="true" width="15.28515625"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="37" max="37" customWidth="true" width="17.85546875"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="27.42578125"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="12.85546875"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="15.28515625"/>
+    <col min="41" max="42" customWidth="true" width="15.28515625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="44" max="44" customWidth="true" width="11.42578125"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="11.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
@@ -937,7 +853,7 @@
         <v>27</v>
       </c>
       <c r="AR1" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AS1" t="s" s="0">
         <v>60</v>
@@ -946,7 +862,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -963,7 +879,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1029,7 +945,7 @@
         <v>51</v>
       </c>
       <c r="AB2" t="s" s="0">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AC2" s="4" t="s">
         <v>17</v>
@@ -1038,7 +954,7 @@
         <v>51</v>
       </c>
       <c r="AE2" t="s" s="0">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AF2" s="4" t="s">
         <v>51</v>
@@ -1047,7 +963,7 @@
         <v>51</v>
       </c>
       <c r="AH2" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AI2" s="4" t="s">
         <v>17</v>
@@ -1062,13 +978,13 @@
         <v>63</v>
       </c>
       <c r="AM2" t="s" s="0">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="AN2" s="0">
         <v>0</v>
       </c>
       <c r="AO2" t="s" s="0">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AP2" s="4" t="s">
         <v>51</v>
@@ -1080,13 +996,13 @@
         <v>139</v>
       </c>
       <c r="AS2" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AT2" t="s" s="0">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1103,7 +1019,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1133,13 +1049,13 @@
         <v>17</v>
       </c>
       <c r="AS3" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AT3" t="s" s="0">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1156,7 +1072,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1183,16 +1099,16 @@
         <v>55</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AS4" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AT4" t="s" s="0">
-        <v>117</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1209,7 +1125,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1236,16 +1152,16 @@
         <v>56</v>
       </c>
       <c r="O5" t="s" s="0">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AS5" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AT5" t="s" s="0">
-        <v>119</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1262,7 +1178,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1289,16 +1205,16 @@
         <v>57</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AS6" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AT6" t="s" s="0">
-        <v>121</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1315,7 +1231,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1342,16 +1258,16 @@
         <v>48</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AS7" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AT7" t="s" s="0">
-        <v>123</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1368,7 +1284,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1395,16 +1311,16 @@
         <v>54</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AS8" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AT8" t="s" s="0">
-        <v>125</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1421,7 +1337,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1448,16 +1364,16 @@
         <v>55</v>
       </c>
       <c r="O9" t="s" s="0">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AS9" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AT9" t="s" s="0">
-        <v>127</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1474,7 +1390,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -1501,13 +1417,13 @@
         <v>56</v>
       </c>
       <c r="O10" t="s" s="0">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AS10" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AT10" t="s" s="0">
-        <v>129</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
